--- a/CodingFileIoCapability/Shreevasta.xlsx
+++ b/CodingFileIoCapability/Shreevasta.xlsx
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>25000.0</v>
+        <v>35000.0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
